--- a/EVA.xlsx
+++ b/EVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REEZZ\Documents\AIUB\Semester_7(summer_2024-2025)\FINAL\SOFTWARE ENGINEERING [P]\BloodLink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA3E1C-D01B-4381-BCEC-633AA6458489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307C274-D054-496B-8791-0AEC58648B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Planned Effort (PD)</t>
   </si>
@@ -81,6 +103,9 @@
   </si>
   <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -426,9 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -698,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>12.657142857142899</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>12.4988706945229</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>12.3405985319029</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>12.182326369282899</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>12.0240542066629</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
+        <v>11.8657820440429</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>11.707509881422901</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>11.5492377188029</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>11.390965556183</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>11.232693393563</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>0</v>
+        <v>11.074421230943001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,141 +846,697 @@
         <v>20</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>10.916149068323</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>16.090909090909101</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10.757876905703</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>16.144843391902199</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10.599604743083001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>16.198777692895298</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10.441332580463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>16.2527119938885</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.283060417843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>16.306646294881599</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10.124788255223001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>16.360580595874701</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.9665160926030492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>16.4145148968678</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.8082439299830604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>16.468449197860998</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9.6499717673630805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>16.522383498854101</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9.4916996047430793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>16.5763177998472</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9.3334274421230994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>16.630252100840298</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9.1751552795031106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>16.6841864018335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>16.738120702826599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>16.792055003819701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>16.8459893048128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>16.899923605805999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>16.953857906799101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>17.0077922077922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>17.061726508785299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17.1156608097785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>17.169595110771599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>17.223529411764702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>17.2774637127578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>17.331398013750999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>17.385332314744101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>17.4392666157372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>17.493200916730299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>17.5471352177235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>17.601069518716599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>17.655003819709702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>17.7089381207028</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>17.762872421695999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>17.816806722689101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>17.8707410236822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>17.924675324675299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>17.978609625668501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>18.032543926661599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>18.086478227654698</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>18.140412528647801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>18.194346829640899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>18.248281130634101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>18.3022154316272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>18.356149732620299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>18.410084033613401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>18.4640183346066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>18.517952635599698</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>18.571886936592801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>18.6258212375859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>18.679755538579101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>18.7336898395722</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>18.787624140565299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>18.841558441558401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>18.8954927425516</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>18.949427043544699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>19.003361344537801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>19.0572956455309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>19.111229946524102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>19.1651642475172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>19.219098548510299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>19.273032849503402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>19.3269671504966</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>19.380901451489699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>19.434835752482801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>19.4887700534759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>19.542704354469102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>19.596638655462201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="2">
-        <f>SUM(B2:B35)</f>
-        <v>515</v>
-      </c>
-      <c r="C37" s="2">
-        <f>SUM(C2:C35)</f>
-        <v>318.50000000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B105" s="2">
+        <f>SUM(B2:B101)</f>
+        <v>1692.6890756302525</v>
+      </c>
+      <c r="C105" s="2">
+        <f>SUM(C2:C101)</f>
+        <v>569.57142857142878</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B107" s="2">
         <v>20</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="2">
-        <f>SUM(B2:B35)</f>
-        <v>515</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B108" s="2">
+        <f>SUM(B2:B101)</f>
+        <v>1692.6890756302525</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="2">
-        <f>SUMPRODUCT(--(B2:B35&lt;C2:C35),B2:B35)+SUMPRODUCT(--(C2:C35&lt;=B2:B35),C2:C35)</f>
-        <v>305.89999999999998</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B109" s="2" cm="1">
+        <f t="array" ref="B109">SUMPRODUCT(--(B2:B101&lt;C2:C101),B2:B101)+SUMPRODUCT(--(C2:C101&lt;=B2:B101),C2:C101)</f>
+        <v>551.08159232072285</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2">
-        <f>SUM(C2:C35)</f>
-        <v>318.50000000000006</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B110" s="2">
+        <f>SUM(C2:C101)</f>
+        <v>569.57142857142878</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="2">
-        <v>908</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B111" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="2">
-        <f>(B41/B40)</f>
-        <v>0.59398058252427177</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B112" s="2">
+        <f>(B109/B108)</f>
+        <v>0.32556575230187162</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="2">
-        <f>B41-B40</f>
-        <v>-209.10000000000002</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B113" s="2">
+        <f>B109-B108</f>
+        <v>-1141.6074833095297</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="2">
-        <f>(B41/B42)</f>
-        <v>0.96043956043956025</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B114" s="2">
+        <f>(B109/B110)</f>
+        <v>0.96753728273013762</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="2">
-        <f>B41-B42</f>
-        <v>-12.60000000000008</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="3">
-        <f>(B40/B43)</f>
-        <v>0.56718061674008813</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B117" s="3">
+        <f>(B108/B111)</f>
+        <v>0.83630883183312876</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="3">
-        <f>(B41/B43)</f>
-        <v>0.33689427312775327</v>
-      </c>
-      <c r="C50" s="2"/>
+      <c r="B118" s="3">
+        <f>(B109/B111)</f>
+        <v>0.27227351399245198</v>
+      </c>
+      <c r="C118" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
